--- a/testData/syslog_test_data.xlsx
+++ b/testData/syslog_test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,10 +179,6 @@
   </si>
   <si>
     <t>请输入地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +567,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -615,7 +611,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>514</v>
